--- a/DOWNLOADS/EDITAIS/U_240129_E_552025/U_240129_E_552025_master.xlsx
+++ b/DOWNLOADS/EDITAIS/U_240129_E_552025/U_240129_E_552025_master.xlsx
@@ -43,40 +43,40 @@
     <t>ARQUIVO</t>
   </si>
   <si>
-    <t>Televisor 75 polegadas 4K Smart</t>
-  </si>
-  <si>
-    <t>Câmera Fotográfica com Lente EF-S 18-55mm</t>
-  </si>
-  <si>
-    <t>Fone de Ouvido com Conector P10</t>
-  </si>
-  <si>
-    <t>Tela de Projeção Elétrica Retrátil 120 polegadas</t>
-  </si>
-  <si>
-    <t>Tripé Profissional com Cabeça Esférica</t>
-  </si>
-  <si>
-    <t>Mesa de Som Analógica com Bluetooth</t>
-  </si>
-  <si>
-    <t>Microfone de Lapela Sem Fio (USB-C)</t>
-  </si>
-  <si>
-    <t>Suporte Pedestal para TV de 75” com Rodízios</t>
-  </si>
-  <si>
-    <t>Microfone Bluetooth para Audioconferência</t>
-  </si>
-  <si>
-    <t>Kit de Transmissão HDMI Sem Fio</t>
-  </si>
-  <si>
-    <t>Câmera Digital com Inteligência Artificial para Videoconferência</t>
-  </si>
-  <si>
-    <t>Microfone Sem Fio (par) – Tipo Handheld Profissional</t>
+    <t>Televisor 75 polegadas 4K Smart (TV Smart QLED ou LED, 75 polegadas, Resolução 4K UHD 3840x2160, Conectividade Wi‑Fi, Bluetooth, Ethernet LAN, 3 HDMI + 2 USB, compatibilidade com assistente virtual e espelhamento de tela, modelo referência Samsung Smart Big TV 75\" QLED 4K 75Q60D ou equivalente, garantia 12 meses)</t>
+  </si>
+  <si>
+    <t>Câmera Fotográfica com Lente EF‑S 18‑55mm (DSLR ou mirrorless, sensor CMOS APS‑C de no mínimo 24,1 MP, tela LCD articulável sensível ao toque, foco Dual Pixel AF, conectividade Wi‑Fi e Bluetooth, lente EF‑S 18‑55mm ou equivalente, modelo referencia Canon EOS Rebel SL3 ou superior, garantia 12 meses)</t>
+  </si>
+  <si>
+    <t>Fone de Ouvido Headband (Over‑ear, fechado, drivers 50mm de neodímio, impedância 32 Ohms, sensibilidade 110 dB, resposta de frequência 20 Hz‑20 kHz, conector P10 estéreo 3 polos, cabo mínimo 2 m, modelo OneOdio Pro‑10 ou superior, garantia 12 meses)</t>
+  </si>
+  <si>
+    <t>Tela Retrátil Elétrica de Projeção 120" (tipo tela retrátil com acionamento elétrico, 120 polegadas 16:9, controle remoto sem fio e botoeira com fio, tensão alimentada 110 V ou 220 V, modelo referência não especificado, garantia 12 meses)</t>
+  </si>
+  <si>
+    <t>Tripé Profissional com Cabeça Esférica (tripé em alumínio, cabeça esférica metálica 28 mm, carga suportada até 8 kg, rotação panorâmica 360°, nivelamento preciso, bolsa de transporte, modelo referência K&amp;F Concept Ballhead KF09.122 ou superior, garantia 12 meses)</t>
+  </si>
+  <si>
+    <t>Console de Mixagem Analógica com Bluetooth (console de mixagem analógica, mínimo 4 canais, 2 canais estéreo, conectividade Bluetooth integrado, equalizador por canal, alimentação via USB ou fonte elétrica, modelo referencia Soundvoice MC4 EUX ou superior, garantia 12 meses)</t>
+  </si>
+  <si>
+    <t>Microfone Lapela Sem Fio (USB‑C) (microfone omnidirecional sem fio, conexão USB‑C, captação 360°, cancelamento de ruído, bateria com autonomia mínima 4 h, alcance 20‑30 m, modelo referência sem especificado, garantia 12 meses)</t>
+  </si>
+  <si>
+    <t>Suporte Pedestal para TV de 75” com Rodízios (compatibilidade TVs até 75” e 45 kg, altura ajustável, base com rodízios e travas de segurança, bandeja para notebook, estrutura aço carbono, garantia 12 meses)</t>
+  </si>
+  <si>
+    <t>Aparelho de Audioconferência Bluetooth (microfone Bluetooth para audioconferência, tipo condensador omnidirecional, conectividade Bluetooth 5.0 ou superior + entrada P2 3,5 mm, compatível com Android, iOS, Windows, macOS, Smart TV, alcance até 10 m, modelo Cap 200 Intelbras ou superior, garantia 12 meses)</t>
+  </si>
+  <si>
+    <t>Kit de Transmissão HDMI Sem Fio (transmissor e receptor HDMI wireless, suporta 4K a 30 Hz ou 1080p a 60 Hz, HDMI 1.4/2.0, HDR, 3D, áudio Dolby Digital, DTS, PCM 2.0/5.1/7.1, protocolo 5G, alcance mínimo 30 m, latência &lt;100 ms, modelo POFAN RX*1+TX*1 ou superior, garantia 12 meses)</t>
+  </si>
+  <si>
+    <t>Câmera Digital com Inteligência Artificial para Videoconferência (resolução 4K UHD 3840x2160 a 30 fps ou 1080p a 30/60 fps, sensor 1/2" CMOS Sony, zoom digital 4×, IA com rastreamento automático, reconhecimento de gestos, ajuste de enquadramento e iluminação em tempo real, microfones duplos com redução de ruído, conexão USB‑C ou USB 3.0, compatibilidade com microfones externos, modelo Insta 360 ou superior, garantia 12 meses)</t>
+  </si>
+  <si>
+    <t>Microfone Sem Fio (par) – Tipo Handheld Profissional (microfone manual sem fio, conjunto de 2 microfones + base receptora + cabos, frequências VHF ou UHF, alcance mínimo 50 m, aplicação em palestras, apresentações, eventos ao vivo, modelo Kadosh K502M ou superior, garantia 12 meses)</t>
   </si>
   <si>
     <t>U_240129_E_552025</t>
@@ -485,6 +485,12 @@
       <c r="D2">
         <v>1</v>
       </c>
+      <c r="E2">
+        <v>5901.5</v>
+      </c>
+      <c r="F2">
+        <v>5901.5</v>
+      </c>
       <c r="I2" t="s">
         <v>21</v>
       </c>
@@ -502,6 +508,12 @@
       <c r="D3">
         <v>2</v>
       </c>
+      <c r="E3">
+        <v>7052</v>
+      </c>
+      <c r="F3">
+        <v>14104</v>
+      </c>
       <c r="I3" t="s">
         <v>21</v>
       </c>
@@ -519,6 +531,12 @@
       <c r="D4">
         <v>1</v>
       </c>
+      <c r="E4">
+        <v>305.82</v>
+      </c>
+      <c r="F4">
+        <v>305.82</v>
+      </c>
       <c r="I4" t="s">
         <v>21</v>
       </c>
@@ -536,6 +554,12 @@
       <c r="D5">
         <v>1</v>
       </c>
+      <c r="E5">
+        <v>1499</v>
+      </c>
+      <c r="F5">
+        <v>1499</v>
+      </c>
       <c r="I5" t="s">
         <v>21</v>
       </c>
@@ -553,6 +577,12 @@
       <c r="D6">
         <v>2</v>
       </c>
+      <c r="E6">
+        <v>799</v>
+      </c>
+      <c r="F6">
+        <v>1598</v>
+      </c>
       <c r="I6" t="s">
         <v>21</v>
       </c>
@@ -570,6 +600,12 @@
       <c r="D7">
         <v>1</v>
       </c>
+      <c r="E7">
+        <v>705</v>
+      </c>
+      <c r="F7">
+        <v>705</v>
+      </c>
       <c r="I7" t="s">
         <v>21</v>
       </c>
@@ -587,6 +623,12 @@
       <c r="D8">
         <v>5</v>
       </c>
+      <c r="E8">
+        <v>258.03</v>
+      </c>
+      <c r="F8">
+        <v>1290.15</v>
+      </c>
       <c r="I8" t="s">
         <v>21</v>
       </c>
@@ -604,6 +646,12 @@
       <c r="D9">
         <v>1</v>
       </c>
+      <c r="E9">
+        <v>721</v>
+      </c>
+      <c r="F9">
+        <v>721</v>
+      </c>
       <c r="I9" t="s">
         <v>21</v>
       </c>
@@ -621,6 +669,12 @@
       <c r="D10">
         <v>1</v>
       </c>
+      <c r="E10">
+        <v>948.64</v>
+      </c>
+      <c r="F10">
+        <v>948.64</v>
+      </c>
       <c r="I10" t="s">
         <v>21</v>
       </c>
@@ -638,6 +692,12 @@
       <c r="D11">
         <v>1</v>
       </c>
+      <c r="E11">
+        <v>1089.99</v>
+      </c>
+      <c r="F11">
+        <v>1089.99</v>
+      </c>
       <c r="I11" t="s">
         <v>21</v>
       </c>
@@ -655,6 +715,12 @@
       <c r="D12">
         <v>2</v>
       </c>
+      <c r="E12">
+        <v>4071.79</v>
+      </c>
+      <c r="F12">
+        <v>8143.58</v>
+      </c>
       <c r="I12" t="s">
         <v>21</v>
       </c>
@@ -671,6 +737,12 @@
       </c>
       <c r="D13">
         <v>2</v>
+      </c>
+      <c r="E13">
+        <v>1920</v>
+      </c>
+      <c r="F13">
+        <v>3840</v>
       </c>
       <c r="I13" t="s">
         <v>21</v>
